--- a/Resources/LatestUploadFormat.xlsx
+++ b/Resources/LatestUploadFormat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="15CS3DCWEP" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="584">
   <si>
     <t>1BM14CS001</t>
   </si>
@@ -1295,9 +1295,6 @@
     <t>1BM14EC140</t>
   </si>
   <si>
-    <t>1BM14EC0141</t>
-  </si>
-  <si>
     <t>1BM14EC142</t>
   </si>
   <si>
@@ -1307,81 +1304,6 @@
     <t>1BM14EC145</t>
   </si>
   <si>
-    <t>15BM03EC001</t>
-  </si>
-  <si>
-    <t>15BM03EC002</t>
-  </si>
-  <si>
-    <t>15BM03EC003</t>
-  </si>
-  <si>
-    <t>15BM03EC004</t>
-  </si>
-  <si>
-    <t>15BM03EC005</t>
-  </si>
-  <si>
-    <t>15BM03EC006</t>
-  </si>
-  <si>
-    <t>15BM03EC007</t>
-  </si>
-  <si>
-    <t>15BM03EC008</t>
-  </si>
-  <si>
-    <t>15BM03EC009</t>
-  </si>
-  <si>
-    <t>15BM03EC010</t>
-  </si>
-  <si>
-    <t>15BM03EC011</t>
-  </si>
-  <si>
-    <t>15BM03EC012</t>
-  </si>
-  <si>
-    <t>15BM03EC013</t>
-  </si>
-  <si>
-    <t>15BM03EC014</t>
-  </si>
-  <si>
-    <t>15BM03EC015</t>
-  </si>
-  <si>
-    <t>15BM03EC016</t>
-  </si>
-  <si>
-    <t>15BM03EC017</t>
-  </si>
-  <si>
-    <t>15BM03EC018</t>
-  </si>
-  <si>
-    <t>15BM03EC019</t>
-  </si>
-  <si>
-    <t>15BM03EC020</t>
-  </si>
-  <si>
-    <t>15BM03EC021</t>
-  </si>
-  <si>
-    <t>15BM03EC022</t>
-  </si>
-  <si>
-    <t>15BM03EC023</t>
-  </si>
-  <si>
-    <t>15BM03EC024</t>
-  </si>
-  <si>
-    <t>15BM03EC025</t>
-  </si>
-  <si>
     <t>1BM13EC009</t>
   </si>
   <si>
@@ -1857,6 +1779,9 @@
   </si>
   <si>
     <t>1BM13ME405</t>
+  </si>
+  <si>
+    <t>1BM14EC141</t>
   </si>
 </sst>
 </file>
@@ -4479,10 +4404,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5588,7 +5513,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>421</v>
+        <v>583</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -5596,7 +5521,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B139">
         <v>2</v>
@@ -5604,7 +5529,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -5612,7 +5537,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B141">
         <v>2</v>
@@ -5620,7 +5545,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B142">
         <v>2</v>
@@ -5628,7 +5553,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B143">
         <v>2</v>
@@ -5636,7 +5561,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B144">
         <v>2</v>
@@ -5644,209 +5569,9 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>429</v>
-      </c>
-      <c r="B146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>430</v>
-      </c>
-      <c r="B147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>431</v>
-      </c>
-      <c r="B148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>432</v>
-      </c>
-      <c r="B149">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>433</v>
-      </c>
-      <c r="B150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>434</v>
-      </c>
-      <c r="B151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>435</v>
-      </c>
-      <c r="B152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>436</v>
-      </c>
-      <c r="B153">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>437</v>
-      </c>
-      <c r="B154">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>438</v>
-      </c>
-      <c r="B155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>439</v>
-      </c>
-      <c r="B156">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>440</v>
-      </c>
-      <c r="B157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>441</v>
-      </c>
-      <c r="B158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>442</v>
-      </c>
-      <c r="B159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>443</v>
-      </c>
-      <c r="B160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>444</v>
-      </c>
-      <c r="B161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>445</v>
-      </c>
-      <c r="B162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>446</v>
-      </c>
-      <c r="B163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>447</v>
-      </c>
-      <c r="B164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>448</v>
-      </c>
-      <c r="B165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>449</v>
-      </c>
-      <c r="B166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>450</v>
-      </c>
-      <c r="B167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>451</v>
-      </c>
-      <c r="B168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>452</v>
-      </c>
-      <c r="B169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>453</v>
-      </c>
-      <c r="B170">
         <v>2</v>
       </c>
     </row>
@@ -5859,7 +5584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
@@ -5870,7 +5595,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -5878,7 +5603,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -5886,7 +5611,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -5894,7 +5619,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -5902,7 +5627,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5910,7 +5635,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -5918,7 +5643,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -5926,7 +5651,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -5934,7 +5659,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -5942,7 +5667,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -5950,7 +5675,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -5958,7 +5683,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -5966,7 +5691,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -5974,7 +5699,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -5982,7 +5707,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -5990,7 +5715,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -5998,7 +5723,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -6006,7 +5731,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -6014,7 +5739,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -6022,7 +5747,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -6030,7 +5755,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -6038,7 +5763,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -6046,7 +5771,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -6054,7 +5779,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -6062,7 +5787,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -6070,7 +5795,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -6078,7 +5803,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -6086,7 +5811,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -6094,7 +5819,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -6102,7 +5827,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -6110,7 +5835,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -6118,7 +5843,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -6126,7 +5851,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -6134,7 +5859,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -6142,7 +5867,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -6150,7 +5875,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -6158,7 +5883,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -6166,7 +5891,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -6174,7 +5899,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -6182,7 +5907,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -6190,7 +5915,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -6198,7 +5923,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -6206,7 +5931,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -6214,7 +5939,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -6222,7 +5947,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -6230,7 +5955,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -6238,7 +5963,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -6246,7 +5971,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -6254,7 +5979,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -6262,7 +5987,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -6270,7 +5995,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -6278,7 +6003,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -6286,7 +6011,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -6294,7 +6019,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -6302,7 +6027,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -6310,7 +6035,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -6318,7 +6043,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -6326,7 +6051,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -6334,7 +6059,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -6342,7 +6067,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -6350,7 +6075,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -6358,7 +6083,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -6366,7 +6091,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -6374,7 +6099,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -6382,7 +6107,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -6390,7 +6115,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -6398,7 +6123,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="B67">
         <v>4</v>
@@ -6406,7 +6131,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -6414,7 +6139,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -6422,7 +6147,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -6430,7 +6155,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -6438,7 +6163,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -6446,7 +6171,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -6454,7 +6179,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -6462,7 +6187,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -6470,7 +6195,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -6478,7 +6203,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -6486,7 +6211,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -6494,7 +6219,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -6502,7 +6227,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -6510,7 +6235,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -6518,7 +6243,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -6526,7 +6251,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -6534,7 +6259,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -6542,7 +6267,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -6550,7 +6275,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -6558,7 +6283,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -6566,7 +6291,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -6574,7 +6299,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -6582,7 +6307,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -6590,7 +6315,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -6598,7 +6323,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -6606,7 +6331,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -6614,7 +6339,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -6622,7 +6347,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -6630,7 +6355,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -6638,7 +6363,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="B97">
         <v>4</v>
@@ -6646,7 +6371,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="B98">
         <v>4</v>
@@ -6654,7 +6379,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="B99">
         <v>4</v>
@@ -6662,7 +6387,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -6670,7 +6395,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -6678,7 +6403,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="B102">
         <v>4</v>
@@ -6686,7 +6411,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -6694,7 +6419,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="B104">
         <v>4</v>
@@ -6702,7 +6427,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -6710,7 +6435,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="B106">
         <v>4</v>
@@ -6718,7 +6443,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -6726,7 +6451,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="B108">
         <v>4</v>
@@ -6734,7 +6459,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -6742,7 +6467,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -6750,7 +6475,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -6758,7 +6483,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -6766,7 +6491,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -6774,7 +6499,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -6782,7 +6507,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -6790,7 +6515,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -6798,7 +6523,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -6806,7 +6531,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -6814,7 +6539,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -6822,7 +6547,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -6830,7 +6555,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -6838,7 +6563,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -6846,7 +6571,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -6854,7 +6579,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -6862,7 +6587,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -6870,7 +6595,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -6878,7 +6603,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -6886,7 +6611,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -6894,7 +6619,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -6902,7 +6627,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -6910,7 +6635,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="B131">
         <v>4</v>
@@ -6918,7 +6643,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -6926,7 +6651,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -6934,7 +6659,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -6942,7 +6667,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -6950,7 +6675,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="B136">
         <v>4</v>
@@ -6958,7 +6683,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -6966,7 +6691,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -6974,7 +6699,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -6982,7 +6707,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -6990,7 +6715,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -6998,7 +6723,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -7006,7 +6731,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -7014,7 +6739,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="B144">
         <v>4</v>
@@ -7022,7 +6747,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -7030,7 +6755,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="B146">
         <v>4</v>
@@ -7038,7 +6763,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="B147">
         <v>4</v>
@@ -7046,7 +6771,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -7054,7 +6779,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -7062,7 +6787,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="B150">
         <v>4</v>
@@ -7070,7 +6795,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="B151">
         <v>4</v>
@@ -7078,7 +6803,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -7086,7 +6811,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="B153">
         <v>4</v>
@@ -7094,7 +6819,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -7102,7 +6827,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="B155">
         <v>4</v>
